--- a/DDAf_2022_tableau_annexe_sources.xlsx
+++ b/DDAf_2022_tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>Retour au Contenu</t>
   </si>
@@ -57,12 +57,24 @@
     <t>Centre d'Etudes Prospectives et d'Informations Internationales (CEPII)</t>
   </si>
   <si>
-    <t>Mise à jour: 19 février, 2021</t>
+    <t>Mise à jour le 19 février, 2021</t>
   </si>
   <si>
     <t>http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
+    <t>Base de données des coûts commerciaux CESAP-Banque mondiale</t>
+  </si>
+  <si>
+    <t>Nations Unies et Banque mondiale</t>
+  </si>
+  <si>
+    <t>Mis à jour le 01/06/2021</t>
+  </si>
+  <si>
+    <t>https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+  </si>
+  <si>
     <t>Base de données des Perspectives de l'économie mondiale du FMI</t>
   </si>
   <si>
@@ -135,6 +147,18 @@
     <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr</t>
   </si>
   <si>
+    <t>Base de données CNUCED-Eora sur la chaîne de valeur mondiale (CVM)</t>
+  </si>
+  <si>
+    <t>CNUCED et Eora</t>
+  </si>
+  <si>
+    <t>Mise à jour le 01/09/2021</t>
+  </si>
+  <si>
+    <t>https://worldmrio.com/unctadgvc/</t>
+  </si>
+  <si>
     <t>Comptes nationaux de la Division de statistique des Nations Unies</t>
   </si>
   <si>
@@ -165,18 +189,6 @@
     <t>http://hdr.undp.org/en/content/human-development-index-hdi</t>
   </si>
   <si>
-    <t>ESCAP-World Bank Trade Cost Database</t>
-  </si>
-  <si>
-    <t>Nations Unies et Banque mondiale</t>
-  </si>
-  <si>
-    <t>Mis à jour le 01/06/2021</t>
-  </si>
-  <si>
-    <t>https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
-  </si>
-  <si>
     <t>FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture</t>
   </si>
   <si>
@@ -309,13 +321,10 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
   </si>
   <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
-  </si>
-  <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -424,7 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -454,6 +463,9 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -637,7 +649,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="Sources" dataDxfId="3"/>
     <tableColumn id="2" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
@@ -911,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1098,55 +1110,55 @@
         <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>55</v>
@@ -1173,57 +1185,57 @@
         <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1251,22 +1263,22 @@
         <v>77</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>82</v>
@@ -1293,74 +1305,83 @@
         <v>87</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="8" t="s">
         <v>92</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="12" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
-      <c r="B32" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1590,15 +1611,6 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="5"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="5"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1610,8 +1622,8 @@
     <hyperlink ref="E14" r:id="rId6" display="https://www.gallup.com/home.aspx"/>
     <hyperlink ref="E7" r:id="rId7" display="https://www.gsmaintelligence.com/data/"/>
     <hyperlink ref="E15" r:id="rId8" display="https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf"/>
-    <hyperlink ref="E21" r:id="rId9" display="http://dataexplorer.wittgensteincentre.org/wcde-v2/"/>
-    <hyperlink ref="E22" r:id="rId10" display="https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about"/>
+    <hyperlink ref="E22" r:id="rId9" display="http://dataexplorer.wittgensteincentre.org/wcde-v2/"/>
+    <hyperlink ref="E23" r:id="rId10" display="https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about"/>
     <hyperlink ref="E10" r:id="rId11" display="https://unstats.un.org/unsd/snaama/"/>
     <hyperlink ref="E13" r:id="rId12" location="data" display="http://www.fao.org/faostat/fr/#data"/>
     <hyperlink ref="E17" r:id="rId13" display="https://www.globalhungerindex.org/download/all.html"/>
@@ -1624,18 +1636,17 @@
     <hyperlink ref="E12" r:id="rId20" display="http://hdr.undp.org/en/content/human-development-index-hdi"/>
     <hyperlink ref="E11" r:id="rId21" display="http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data"/>
     <hyperlink ref="E16" r:id="rId22" display="https://data.worldbank.org/products/wdi"/>
-    <hyperlink ref="E23" r:id="rId23" display="https://population.un.org/wpp/Download/Standard/Population/"/>
-    <hyperlink ref="E24" r:id="rId24" display="https://population.un.org/wup/"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://population.un.org/wpp/Download/Standard/Population/"/>
+    <hyperlink ref="E25" r:id="rId24" display="https://population.un.org/wup/"/>
     <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
-    <hyperlink ref="B32" r:id="rId25"/>
-    <hyperlink ref="B34" r:id="rId26"/>
-    <hyperlink ref="B33" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DDAf_2022_tableau_annexe_sources.xlsx
+++ b/DDAf_2022_tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11150"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
